--- a/gangwon_forest_fire_predict/data/강원산불신고.xlsx
+++ b/gangwon_forest_fire_predict/data/강원산불신고.xlsx
@@ -1,40 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rch\Desktop\대학관련\대학원-학부연구생 논문\predict_forest_fire_research_github\gangwon_forest_fire_predict\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049F4D36-69D9-48D0-87CC-0150ADD508EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>FRSTFR_INFO_ID</t>
+  </si>
+  <si>
+    <t>FRSTFR_DCLR_PSTN_XCRD</t>
+  </si>
+  <si>
+    <t>FRSTFR_DCLR_PSTN_YCRD</t>
+  </si>
+  <si>
+    <t>FRSTFR_DCLR_YMD</t>
+  </si>
+  <si>
+    <t>FRSTFR_DCLR_HR</t>
+  </si>
+  <si>
+    <t>FRSTFR_DCLR_ADDR</t>
+  </si>
+  <si>
+    <t>FRSTFR_OCRN_SE_CD</t>
+  </si>
+  <si>
+    <t>FRSTFR_OCRN_STTS_CD</t>
+  </si>
+  <si>
+    <t>FRSTFR_OCRN_WIDIR_CD</t>
+  </si>
+  <si>
+    <t>FRSTFR_OCRN_WISP</t>
+  </si>
+  <si>
+    <t>DEL_YN</t>
+  </si>
+  <si>
+    <t>FRSTFR_PRGRS_STTS_CD</t>
+  </si>
+  <si>
+    <t>MAAS_OBTN_YMD</t>
+  </si>
+  <si>
+    <t>강원도 강릉시 교동 1933</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2022/06/22 17:45:31</t>
+  </si>
+  <si>
+    <t>강원특별자치도 삼척시 미로면 하정리 산 61</t>
+  </si>
+  <si>
+    <t>2023/06/11 23:58:03</t>
+  </si>
+  <si>
+    <t>강원특별자치도 삼척시 하장면 중봉리 산 1</t>
+  </si>
+  <si>
+    <t>2023/06/11 23:58:05</t>
+  </si>
+  <si>
+    <t>강원특별자치도 정선군 임계면 문래리 산 192-1</t>
+  </si>
+  <si>
+    <t>2023/06/11 23:58:07</t>
+  </si>
+  <si>
+    <t>강원특별자치도 삼척시 도계읍 신리 산 138</t>
+  </si>
+  <si>
+    <t>2023/06/11 23:54:09</t>
+  </si>
+  <si>
+    <t>강원도 춘천시 서면 덕두원리 산 163-10</t>
+  </si>
+  <si>
+    <t>2022/06/22 17:20:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강원 고성 현남 명파 </t>
+  </si>
+  <si>
+    <t>2018/04/25 00:00:00</t>
+  </si>
+  <si>
+    <t>강원 영월 북 문곡 산156-1</t>
+  </si>
+  <si>
+    <t>강원 인제 인제 고사 산1</t>
+  </si>
+  <si>
+    <t>강원 삼척 도계 흥전 산82</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,93 +168,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,502 +493,399 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="31.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>FRSTFR_INFO_ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>FRSTFR_DCLR_PSTN_XCRD</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>FRSTFR_DCLR_PSTN_YCRD</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>FRSTFR_DCLR_YMD</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>FRSTFR_DCLR_HR</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>FRSTFR_DCLR_ADDR</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>FRSTFR_OCRN_SE_CD</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>FRSTFR_OCRN_STTS_CD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>FRSTFR_OCRN_WIDIR_CD</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>FRSTFR_OCRN_WISP</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>DEL_YN</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>FRSTFR_PRGRS_STTS_CD</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MAAS_OBTN_YMD</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>52</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2">
         <v>19483</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2">
         <v>128.879966</v>
       </c>
-      <c r="D2" t="n">
-        <v>37.769268</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2" s="2">
+        <v>37.769267999999997</v>
+      </c>
+      <c r="E2" s="2">
         <v>20160321</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2">
         <v>215036</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>강원도 강릉시 교동 1933</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="2">
         <v>31</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K2" t="n">
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" s="2">
         <v>99</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2022/06/22 17:45:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>56</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2">
         <v>17005</v>
       </c>
-      <c r="C3" t="n">
-        <v>129.1207983959852</v>
-      </c>
-      <c r="D3" t="n">
-        <v>37.38806147721853</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="C3" s="2">
+        <v>129.12079839598519</v>
+      </c>
+      <c r="D3" s="2">
+        <v>37.388061477218528</v>
+      </c>
+      <c r="E3" s="2">
         <v>20160222</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2">
         <v>102014</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>강원특별자치도 삼척시 미로면 하정리 산 61</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2">
         <v>5</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="2">
         <v>31</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" s="2">
         <v>99</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2023/06/11 23:58:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="N3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>58</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2">
         <v>17043</v>
       </c>
-      <c r="C4" t="n">
-        <v>128.9717963208157</v>
-      </c>
-      <c r="D4" t="n">
-        <v>37.39242589512074</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="C4" s="2">
+        <v>128.97179632081571</v>
+      </c>
+      <c r="D4" s="2">
+        <v>37.392425895120738</v>
+      </c>
+      <c r="E4" s="2">
         <v>20160222</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2">
         <v>105226</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>강원특별자치도 삼척시 하장면 중봉리 산 1</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2">
         <v>5</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="2">
         <v>31</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" s="2">
         <v>99</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2023/06/11 23:58:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>60</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2">
         <v>17070</v>
       </c>
-      <c r="C5" t="n">
-        <v>128.8862186029685</v>
-      </c>
-      <c r="D5" t="n">
-        <v>37.41022603843883</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="C5" s="2">
+        <v>128.88621860296851</v>
+      </c>
+      <c r="D5" s="2">
+        <v>37.410226038438829</v>
+      </c>
+      <c r="E5" s="2">
         <v>20160222</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2">
         <v>113513</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>강원특별자치도 정선군 임계면 문래리 산 192-1</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2">
         <v>5</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="2">
         <v>31</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" s="2">
         <v>99</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2023/06/11 23:58:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="N5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>61</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2">
         <v>17072</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2">
         <v>129.1514172682393</v>
       </c>
-      <c r="D6" t="n">
-        <v>37.19872286225765</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6" s="2">
+        <v>37.198722862257647</v>
+      </c>
+      <c r="E6" s="2">
         <v>20160222</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2">
         <v>113851</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>강원특별자치도 삼척시 도계읍 신리 산 138</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2">
         <v>5</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="2">
         <v>31</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" s="2">
         <v>99</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2023/06/11 23:54:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="N6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>64</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2">
         <v>17899</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2">
         <v>127.6423747721237</v>
       </c>
-      <c r="D7" t="n">
-        <v>37.87562827203446</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7" s="2">
+        <v>37.875628272034461</v>
+      </c>
+      <c r="E7" s="2">
         <v>20160226</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="2">
         <v>102521</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>강원도 춘천시 서면 덕두원리 산 163-10</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2">
         <v>5</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="2">
         <v>31</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" s="2">
         <v>99</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2022/06/22 17:20:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="N7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>77</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2344</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>20080407</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>112400</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">강원 고성 현남 명파 </t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>4</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2018/04/25 00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>78</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2345</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>20080408</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>141500</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>강원 영월 북 문곡 산156-1</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>4</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>4</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2018/04/25 00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>91</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2447</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>20081013</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>140500</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>강원 인제 인제 고사 산1</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>4</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>4</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2018/04/25 00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>93</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2450</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>20081015</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>124000</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>강원 삼척 도계 흥전 산82</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>4</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>4</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2018/04/25 00:00:00</t>
-        </is>
+      <c r="N11" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>